--- a/data_xlsx/spanishDFDev.xlsx
+++ b/data_xlsx/spanishDFDev.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12071cbfdffdbbd1/GitHub/PR-AAAI22-SDU-ST1-AE/data_xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_87C2DCCCE5816AEFFA160B77A35DDF95502675AF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62C7E998-2AB6-470E-89EB-65D611E16237}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -10039,8 +10045,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10103,6 +10109,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -10149,7 +10163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10181,9 +10195,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10215,6 +10247,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -10390,14 +10440,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F742"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="45.765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10417,7 +10472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10437,7 +10492,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10457,7 +10512,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10477,7 +10532,7 @@
         <v>2786</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10497,7 +10552,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10517,7 +10572,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10537,7 +10592,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10557,7 +10612,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10577,7 +10632,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10597,7 +10652,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10617,7 +10672,7 @@
         <v>2792</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10637,7 +10692,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10657,7 +10712,7 @@
         <v>2794</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10677,7 +10732,7 @@
         <v>2795</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10697,7 +10752,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10717,7 +10772,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10737,7 +10792,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10757,7 +10812,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10777,7 +10832,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10797,7 +10852,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10817,7 +10872,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10837,7 +10892,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10857,7 +10912,7 @@
         <v>2803</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10877,7 +10932,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10897,7 +10952,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10917,7 +10972,7 @@
         <v>2806</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10937,7 +10992,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10957,7 +11012,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10977,7 +11032,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10997,7 +11052,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11017,7 +11072,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11037,7 +11092,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11057,7 +11112,7 @@
         <v>2812</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11077,7 +11132,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11097,7 +11152,7 @@
         <v>2814</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11117,7 +11172,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11137,7 +11192,7 @@
         <v>2816</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11157,7 +11212,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11177,7 +11232,7 @@
         <v>2818</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11197,7 +11252,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11217,7 +11272,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11237,7 +11292,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11257,7 +11312,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11277,7 +11332,7 @@
         <v>2823</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11297,7 +11352,7 @@
         <v>2824</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11317,7 +11372,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11337,7 +11392,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11357,7 +11412,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11377,7 +11432,7 @@
         <v>2827</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11397,7 +11452,7 @@
         <v>2828</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11417,7 +11472,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11437,7 +11492,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11457,7 +11512,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11477,7 +11532,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11497,7 +11552,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11517,7 +11572,7 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11537,7 +11592,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11557,7 +11612,7 @@
         <v>2834</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11577,7 +11632,7 @@
         <v>2835</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11597,7 +11652,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11617,7 +11672,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11637,7 +11692,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11657,7 +11712,7 @@
         <v>2838</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -11677,7 +11732,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11697,7 +11752,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11717,7 +11772,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11737,7 +11792,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11757,7 +11812,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -11777,7 +11832,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -11797,7 +11852,7 @@
         <v>2844</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -11817,7 +11872,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -11837,7 +11892,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -11857,7 +11912,7 @@
         <v>2847</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -11877,7 +11932,7 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -11897,7 +11952,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -11917,7 +11972,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -11937,7 +11992,7 @@
         <v>2851</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -11957,7 +12012,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -11977,7 +12032,7 @@
         <v>2853</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -11997,7 +12052,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12017,7 +12072,7 @@
         <v>2855</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12037,7 +12092,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -12057,7 +12112,7 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -12077,7 +12132,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -12097,7 +12152,7 @@
         <v>2858</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -12117,7 +12172,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -12137,7 +12192,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -12157,7 +12212,7 @@
         <v>2861</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -12177,7 +12232,7 @@
         <v>2862</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -12197,7 +12252,7 @@
         <v>2863</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -12217,7 +12272,7 @@
         <v>2864</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -12237,7 +12292,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -12257,7 +12312,7 @@
         <v>2866</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -12277,7 +12332,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -12297,7 +12352,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -12317,7 +12372,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -12337,7 +12392,7 @@
         <v>2868</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -12357,7 +12412,7 @@
         <v>2869</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -12377,7 +12432,7 @@
         <v>2870</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -12397,7 +12452,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -12417,7 +12472,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -12437,7 +12492,7 @@
         <v>2873</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -12457,7 +12512,7 @@
         <v>2874</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -12477,7 +12532,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -12497,7 +12552,7 @@
         <v>2876</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -12517,7 +12572,7 @@
         <v>2877</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -12537,7 +12592,7 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -12557,7 +12612,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -12577,7 +12632,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -12597,7 +12652,7 @@
         <v>2881</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -12617,7 +12672,7 @@
         <v>2882</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -12637,7 +12692,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -12657,7 +12712,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -12677,7 +12732,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -12697,7 +12752,7 @@
         <v>2886</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -12717,7 +12772,7 @@
         <v>2887</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -12737,7 +12792,7 @@
         <v>2888</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -12757,7 +12812,7 @@
         <v>2889</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -12777,7 +12832,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -12797,7 +12852,7 @@
         <v>2891</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -12817,7 +12872,7 @@
         <v>2892</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -12837,7 +12892,7 @@
         <v>2893</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -12857,7 +12912,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -12877,7 +12932,7 @@
         <v>2895</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -12897,7 +12952,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -12917,7 +12972,7 @@
         <v>2897</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -12937,7 +12992,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -12957,7 +13012,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -12977,7 +13032,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -12997,7 +13052,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -13017,7 +13072,7 @@
         <v>2902</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -13037,7 +13092,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -13057,7 +13112,7 @@
         <v>2904</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13077,7 +13132,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13097,7 +13152,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -13117,7 +13172,7 @@
         <v>2907</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -13137,7 +13192,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -13157,7 +13212,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -13177,7 +13232,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -13197,7 +13252,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -13217,7 +13272,7 @@
         <v>2910</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -13237,7 +13292,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -13257,7 +13312,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -13277,7 +13332,7 @@
         <v>2913</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -13297,7 +13352,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -13317,7 +13372,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -13337,7 +13392,7 @@
         <v>2915</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -13357,7 +13412,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -13377,7 +13432,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -13397,7 +13452,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -13417,7 +13472,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -13437,7 +13492,7 @@
         <v>2919</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -13457,7 +13512,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -13477,7 +13532,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
@@ -13497,7 +13552,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
@@ -13517,7 +13572,7 @@
         <v>2922</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -13537,7 +13592,7 @@
         <v>2923</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -13557,7 +13612,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
@@ -13577,7 +13632,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -13597,7 +13652,7 @@
         <v>2926</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
@@ -13617,7 +13672,7 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
@@ -13637,7 +13692,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -13657,7 +13712,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
@@ -13677,7 +13732,7 @@
         <v>2930</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
@@ -13697,7 +13752,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -13717,7 +13772,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -13737,7 +13792,7 @@
         <v>2933</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -13757,7 +13812,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -13777,7 +13832,7 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
@@ -13797,7 +13852,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -13817,7 +13872,7 @@
         <v>2937</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
@@ -13837,7 +13892,7 @@
         <v>2938</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
@@ -13857,7 +13912,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
@@ -13877,7 +13932,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
@@ -13897,7 +13952,7 @@
         <v>2941</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
@@ -13917,7 +13972,7 @@
         <v>2942</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
@@ -13937,7 +13992,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
@@ -13957,7 +14012,7 @@
         <v>2944</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
@@ -13977,7 +14032,7 @@
         <v>2945</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
@@ -13997,7 +14052,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
@@ -14017,7 +14072,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
@@ -14037,7 +14092,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
@@ -14057,7 +14112,7 @@
         <v>2949</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
@@ -14077,7 +14132,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
@@ -14097,7 +14152,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
@@ -14117,7 +14172,7 @@
         <v>2952</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
@@ -14137,7 +14192,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
@@ -14157,7 +14212,7 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
@@ -14177,7 +14232,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
@@ -14197,7 +14252,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
@@ -14217,7 +14272,7 @@
         <v>2957</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
@@ -14237,7 +14292,7 @@
         <v>2958</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
@@ -14257,7 +14312,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
@@ -14277,7 +14332,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
@@ -14297,7 +14352,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
@@ -14317,7 +14372,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
@@ -14337,7 +14392,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
@@ -14357,7 +14412,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
@@ -14377,7 +14432,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
@@ -14397,7 +14452,7 @@
         <v>2962</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -14417,7 +14472,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>201</v>
       </c>
@@ -14437,7 +14492,7 @@
         <v>2964</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>202</v>
       </c>
@@ -14457,7 +14512,7 @@
         <v>2965</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>203</v>
       </c>
@@ -14477,7 +14532,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>204</v>
       </c>
@@ -14497,7 +14552,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>205</v>
       </c>
@@ -14517,7 +14572,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>206</v>
       </c>
@@ -14537,7 +14592,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>207</v>
       </c>
@@ -14557,7 +14612,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>208</v>
       </c>
@@ -14577,7 +14632,7 @@
         <v>2968</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>209</v>
       </c>
@@ -14597,7 +14652,7 @@
         <v>2969</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>210</v>
       </c>
@@ -14617,7 +14672,7 @@
         <v>2970</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>211</v>
       </c>
@@ -14637,7 +14692,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>212</v>
       </c>
@@ -14657,7 +14712,7 @@
         <v>2972</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>213</v>
       </c>
@@ -14677,7 +14732,7 @@
         <v>2973</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>214</v>
       </c>
@@ -14697,7 +14752,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>215</v>
       </c>
@@ -14717,7 +14772,7 @@
         <v>2974</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>216</v>
       </c>
@@ -14737,7 +14792,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>217</v>
       </c>
@@ -14757,7 +14812,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>218</v>
       </c>
@@ -14777,7 +14832,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>219</v>
       </c>
@@ -14797,7 +14852,7 @@
         <v>2976</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>220</v>
       </c>
@@ -14817,7 +14872,7 @@
         <v>2977</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>221</v>
       </c>
@@ -14837,7 +14892,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>222</v>
       </c>
@@ -14857,7 +14912,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>223</v>
       </c>
@@ -14877,7 +14932,7 @@
         <v>2980</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>224</v>
       </c>
@@ -14897,7 +14952,7 @@
         <v>2981</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>225</v>
       </c>
@@ -14917,7 +14972,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>226</v>
       </c>
@@ -14937,7 +14992,7 @@
         <v>2983</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>227</v>
       </c>
@@ -14957,7 +15012,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>228</v>
       </c>
@@ -14977,7 +15032,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>229</v>
       </c>
@@ -14997,7 +15052,7 @@
         <v>2985</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>230</v>
       </c>
@@ -15017,7 +15072,7 @@
         <v>2986</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>231</v>
       </c>
@@ -15037,7 +15092,7 @@
         <v>2987</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>232</v>
       </c>
@@ -15057,7 +15112,7 @@
         <v>2988</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>233</v>
       </c>
@@ -15077,7 +15132,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>234</v>
       </c>
@@ -15097,7 +15152,7 @@
         <v>2990</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>235</v>
       </c>
@@ -15117,7 +15172,7 @@
         <v>2991</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>236</v>
       </c>
@@ -15137,7 +15192,7 @@
         <v>2992</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>237</v>
       </c>
@@ -15157,7 +15212,7 @@
         <v>2993</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>238</v>
       </c>
@@ -15177,7 +15232,7 @@
         <v>2994</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>239</v>
       </c>
@@ -15197,7 +15252,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>240</v>
       </c>
@@ -15217,7 +15272,7 @@
         <v>2996</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>241</v>
       </c>
@@ -15237,7 +15292,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>242</v>
       </c>
@@ -15257,7 +15312,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>243</v>
       </c>
@@ -15277,7 +15332,7 @@
         <v>2998</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>244</v>
       </c>
@@ -15297,7 +15352,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>245</v>
       </c>
@@ -15317,7 +15372,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>246</v>
       </c>
@@ -15337,7 +15392,7 @@
         <v>3001</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>247</v>
       </c>
@@ -15357,7 +15412,7 @@
         <v>3002</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>248</v>
       </c>
@@ -15377,7 +15432,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>249</v>
       </c>
@@ -15397,7 +15452,7 @@
         <v>3004</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>250</v>
       </c>
@@ -15417,7 +15472,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>251</v>
       </c>
@@ -15437,7 +15492,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>252</v>
       </c>
@@ -15457,7 +15512,7 @@
         <v>3005</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>253</v>
       </c>
@@ -15477,7 +15532,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>254</v>
       </c>
@@ -15497,7 +15552,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>255</v>
       </c>
@@ -15517,7 +15572,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>256</v>
       </c>
@@ -15537,7 +15592,7 @@
         <v>3009</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>257</v>
       </c>
@@ -15557,7 +15612,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>258</v>
       </c>
@@ -15577,7 +15632,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>259</v>
       </c>
@@ -15597,7 +15652,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>260</v>
       </c>
@@ -15617,7 +15672,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>261</v>
       </c>
@@ -15637,7 +15692,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>262</v>
       </c>
@@ -15657,7 +15712,7 @@
         <v>3013</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>263</v>
       </c>
@@ -15677,7 +15732,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>264</v>
       </c>
@@ -15697,7 +15752,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>265</v>
       </c>
@@ -15717,7 +15772,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>266</v>
       </c>
@@ -15737,7 +15792,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>267</v>
       </c>
@@ -15757,7 +15812,7 @@
         <v>3018</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>268</v>
       </c>
@@ -15777,7 +15832,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>269</v>
       </c>
@@ -15797,7 +15852,7 @@
         <v>2953</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>270</v>
       </c>
@@ -15817,7 +15872,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>271</v>
       </c>
@@ -15837,7 +15892,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>272</v>
       </c>
@@ -15857,7 +15912,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>273</v>
       </c>
@@ -15877,7 +15932,7 @@
         <v>3020</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>274</v>
       </c>
@@ -15897,7 +15952,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>275</v>
       </c>
@@ -15917,7 +15972,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>276</v>
       </c>
@@ -15937,7 +15992,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>277</v>
       </c>
@@ -15957,7 +16012,7 @@
         <v>3022</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>278</v>
       </c>
@@ -15977,7 +16032,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>279</v>
       </c>
@@ -15997,7 +16052,7 @@
         <v>3024</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>280</v>
       </c>
@@ -16017,7 +16072,7 @@
         <v>3025</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>281</v>
       </c>
@@ -16037,7 +16092,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>282</v>
       </c>
@@ -16057,7 +16112,7 @@
         <v>3026</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>283</v>
       </c>
@@ -16077,7 +16132,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>284</v>
       </c>
@@ -16097,7 +16152,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>285</v>
       </c>
@@ -16117,7 +16172,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>286</v>
       </c>
@@ -16137,7 +16192,7 @@
         <v>3030</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>287</v>
       </c>
@@ -16157,7 +16212,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>288</v>
       </c>
@@ -16177,7 +16232,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>289</v>
       </c>
@@ -16197,7 +16252,7 @@
         <v>3032</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>290</v>
       </c>
@@ -16217,7 +16272,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>291</v>
       </c>
@@ -16237,7 +16292,7 @@
         <v>2880</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>292</v>
       </c>
@@ -16257,7 +16312,7 @@
         <v>3033</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>293</v>
       </c>
@@ -16277,7 +16332,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>294</v>
       </c>
@@ -16297,7 +16352,7 @@
         <v>3034</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>295</v>
       </c>
@@ -16317,7 +16372,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>296</v>
       </c>
@@ -16337,7 +16392,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>297</v>
       </c>
@@ -16357,7 +16412,7 @@
         <v>3036</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>298</v>
       </c>
@@ -16377,7 +16432,7 @@
         <v>3037</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>299</v>
       </c>
@@ -16397,7 +16452,7 @@
         <v>3038</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>300</v>
       </c>
@@ -16417,7 +16472,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>301</v>
       </c>
@@ -16437,7 +16492,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>302</v>
       </c>
@@ -16457,7 +16512,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>303</v>
       </c>
@@ -16477,7 +16532,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>304</v>
       </c>
@@ -16497,7 +16552,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>305</v>
       </c>
@@ -16517,7 +16572,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>306</v>
       </c>
@@ -16537,7 +16592,7 @@
         <v>3040</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>307</v>
       </c>
@@ -16557,7 +16612,7 @@
         <v>3041</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>308</v>
       </c>
@@ -16577,7 +16632,7 @@
         <v>3042</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>309</v>
       </c>
@@ -16597,7 +16652,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>310</v>
       </c>
@@ -16617,7 +16672,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>311</v>
       </c>
@@ -16637,7 +16692,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>312</v>
       </c>
@@ -16657,7 +16712,7 @@
         <v>3045</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>313</v>
       </c>
@@ -16677,7 +16732,7 @@
         <v>3046</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>314</v>
       </c>
@@ -16697,7 +16752,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>315</v>
       </c>
@@ -16717,7 +16772,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>316</v>
       </c>
@@ -16737,7 +16792,7 @@
         <v>3048</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>317</v>
       </c>
@@ -16757,7 +16812,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>318</v>
       </c>
@@ -16777,7 +16832,7 @@
         <v>3049</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>319</v>
       </c>
@@ -16797,7 +16852,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>320</v>
       </c>
@@ -16817,7 +16872,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>321</v>
       </c>
@@ -16837,7 +16892,7 @@
         <v>3051</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>322</v>
       </c>
@@ -16857,7 +16912,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>323</v>
       </c>
@@ -16877,7 +16932,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>324</v>
       </c>
@@ -16897,7 +16952,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>325</v>
       </c>
@@ -16917,7 +16972,7 @@
         <v>3054</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>326</v>
       </c>
@@ -16937,7 +16992,7 @@
         <v>3055</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>327</v>
       </c>
@@ -16957,7 +17012,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>328</v>
       </c>
@@ -16977,7 +17032,7 @@
         <v>2911</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>329</v>
       </c>
@@ -16997,7 +17052,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>330</v>
       </c>
@@ -17017,7 +17072,7 @@
         <v>2859</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>331</v>
       </c>
@@ -17037,7 +17092,7 @@
         <v>3058</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>332</v>
       </c>
@@ -17057,7 +17112,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>333</v>
       </c>
@@ -17077,7 +17132,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>334</v>
       </c>
@@ -17097,7 +17152,7 @@
         <v>3060</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>335</v>
       </c>
@@ -17117,7 +17172,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>336</v>
       </c>
@@ -17137,7 +17192,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>337</v>
       </c>
@@ -17157,7 +17212,7 @@
         <v>3063</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>338</v>
       </c>
@@ -17177,7 +17232,7 @@
         <v>3064</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>339</v>
       </c>
@@ -17197,7 +17252,7 @@
         <v>2914</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>340</v>
       </c>
@@ -17217,7 +17272,7 @@
         <v>2796</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>341</v>
       </c>
@@ -17237,7 +17292,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>342</v>
       </c>
@@ -17257,7 +17312,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>343</v>
       </c>
@@ -17277,7 +17332,7 @@
         <v>3066</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>344</v>
       </c>
@@ -17297,7 +17352,7 @@
         <v>3067</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>345</v>
       </c>
@@ -17317,7 +17372,7 @@
         <v>3068</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>346</v>
       </c>
@@ -17337,7 +17392,7 @@
         <v>3069</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>347</v>
       </c>
@@ -17357,7 +17412,7 @@
         <v>3070</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>348</v>
       </c>
@@ -17377,7 +17432,7 @@
         <v>3071</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>349</v>
       </c>
@@ -17397,7 +17452,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>350</v>
       </c>
@@ -17417,7 +17472,7 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>351</v>
       </c>
@@ -17437,7 +17492,7 @@
         <v>3074</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>352</v>
       </c>
@@ -17457,7 +17512,7 @@
         <v>3075</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>353</v>
       </c>
@@ -17477,7 +17532,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>354</v>
       </c>
@@ -17497,7 +17552,7 @@
         <v>3077</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>355</v>
       </c>
@@ -17517,7 +17572,7 @@
         <v>2819</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>356</v>
       </c>
@@ -17537,7 +17592,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>357</v>
       </c>
@@ -17557,7 +17612,7 @@
         <v>3078</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>358</v>
       </c>
@@ -17577,7 +17632,7 @@
         <v>3079</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>359</v>
       </c>
@@ -17597,7 +17652,7 @@
         <v>3080</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>360</v>
       </c>
@@ -17617,7 +17672,7 @@
         <v>3081</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>361</v>
       </c>
@@ -17637,7 +17692,7 @@
         <v>3082</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>362</v>
       </c>
@@ -17657,7 +17712,7 @@
         <v>3083</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>363</v>
       </c>
@@ -17677,7 +17732,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>364</v>
       </c>
@@ -17697,7 +17752,7 @@
         <v>3084</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>365</v>
       </c>
@@ -17717,7 +17772,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>366</v>
       </c>
@@ -17737,7 +17792,7 @@
         <v>3085</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>367</v>
       </c>
@@ -17757,7 +17812,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>368</v>
       </c>
@@ -17777,7 +17832,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>369</v>
       </c>
@@ -17797,7 +17852,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>370</v>
       </c>
@@ -17817,7 +17872,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>371</v>
       </c>
@@ -17837,7 +17892,7 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>372</v>
       </c>
@@ -17857,7 +17912,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>373</v>
       </c>
@@ -17877,7 +17932,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>374</v>
       </c>
@@ -17897,7 +17952,7 @@
         <v>3056</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>375</v>
       </c>
@@ -17917,7 +17972,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>376</v>
       </c>
@@ -17937,7 +17992,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>377</v>
       </c>
@@ -17957,7 +18012,7 @@
         <v>3094</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>378</v>
       </c>
@@ -17977,7 +18032,7 @@
         <v>3095</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>379</v>
       </c>
@@ -17997,7 +18052,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>380</v>
       </c>
@@ -18017,7 +18072,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>381</v>
       </c>
@@ -18037,7 +18092,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>382</v>
       </c>
@@ -18057,7 +18112,7 @@
         <v>3088</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>383</v>
       </c>
@@ -18077,7 +18132,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>384</v>
       </c>
@@ -18097,7 +18152,7 @@
         <v>3097</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>385</v>
       </c>
@@ -18117,7 +18172,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>386</v>
       </c>
@@ -18137,7 +18192,7 @@
         <v>3099</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>387</v>
       </c>
@@ -18157,7 +18212,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>388</v>
       </c>
@@ -18177,7 +18232,7 @@
         <v>3101</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>389</v>
       </c>
@@ -18197,7 +18252,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>390</v>
       </c>
@@ -18217,7 +18272,7 @@
         <v>3102</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>391</v>
       </c>
@@ -18237,7 +18292,7 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>392</v>
       </c>
@@ -18257,7 +18312,7 @@
         <v>3104</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>393</v>
       </c>
@@ -18277,7 +18332,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>394</v>
       </c>
@@ -18297,7 +18352,7 @@
         <v>3105</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>395</v>
       </c>
@@ -18317,7 +18372,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>396</v>
       </c>
@@ -18337,7 +18392,7 @@
         <v>3106</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>397</v>
       </c>
@@ -18357,7 +18412,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>398</v>
       </c>
@@ -18377,7 +18432,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>399</v>
       </c>
@@ -18397,7 +18452,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>400</v>
       </c>
@@ -18417,7 +18472,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>401</v>
       </c>
@@ -18437,7 +18492,7 @@
         <v>3109</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>402</v>
       </c>
@@ -18457,7 +18512,7 @@
         <v>3110</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>403</v>
       </c>
@@ -18477,7 +18532,7 @@
         <v>3111</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>404</v>
       </c>
@@ -18497,7 +18552,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>405</v>
       </c>
@@ -18517,7 +18572,7 @@
         <v>3113</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>406</v>
       </c>
@@ -18537,7 +18592,7 @@
         <v>3114</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>407</v>
       </c>
@@ -18557,7 +18612,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>408</v>
       </c>
@@ -18577,7 +18632,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>409</v>
       </c>
@@ -18597,7 +18652,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>410</v>
       </c>
@@ -18617,7 +18672,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>411</v>
       </c>
@@ -18637,7 +18692,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>412</v>
       </c>
@@ -18657,7 +18712,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>413</v>
       </c>
@@ -18677,7 +18732,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>414</v>
       </c>
@@ -18697,7 +18752,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>415</v>
       </c>
@@ -18717,7 +18772,7 @@
         <v>3118</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>416</v>
       </c>
@@ -18737,7 +18792,7 @@
         <v>3119</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>417</v>
       </c>
@@ -18757,7 +18812,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>418</v>
       </c>
@@ -18777,7 +18832,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>419</v>
       </c>
@@ -18797,7 +18852,7 @@
         <v>3121</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>420</v>
       </c>
@@ -18817,7 +18872,7 @@
         <v>3122</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>421</v>
       </c>
@@ -18837,7 +18892,7 @@
         <v>3123</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>422</v>
       </c>
@@ -18857,7 +18912,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>423</v>
       </c>
@@ -18877,7 +18932,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>424</v>
       </c>
@@ -18897,7 +18952,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>425</v>
       </c>
@@ -18917,7 +18972,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>426</v>
       </c>
@@ -18937,7 +18992,7 @@
         <v>3126</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>427</v>
       </c>
@@ -18957,7 +19012,7 @@
         <v>3127</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>428</v>
       </c>
@@ -18977,7 +19032,7 @@
         <v>3128</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>429</v>
       </c>
@@ -18997,7 +19052,7 @@
         <v>3129</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>430</v>
       </c>
@@ -19017,7 +19072,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>431</v>
       </c>
@@ -19037,7 +19092,7 @@
         <v>3130</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>432</v>
       </c>
@@ -19057,7 +19112,7 @@
         <v>3131</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>433</v>
       </c>
@@ -19077,7 +19132,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>434</v>
       </c>
@@ -19097,7 +19152,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>435</v>
       </c>
@@ -19117,7 +19172,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>436</v>
       </c>
@@ -19137,7 +19192,7 @@
         <v>3133</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>437</v>
       </c>
@@ -19157,7 +19212,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>438</v>
       </c>
@@ -19177,7 +19232,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>439</v>
       </c>
@@ -19197,7 +19252,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>440</v>
       </c>
@@ -19217,7 +19272,7 @@
         <v>3135</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A442">
         <v>441</v>
       </c>
@@ -19237,7 +19292,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>442</v>
       </c>
@@ -19257,7 +19312,7 @@
         <v>3137</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A444">
         <v>443</v>
       </c>
@@ -19277,7 +19332,7 @@
         <v>3138</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>444</v>
       </c>
@@ -19297,7 +19352,7 @@
         <v>3139</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A446">
         <v>445</v>
       </c>
@@ -19317,7 +19372,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>446</v>
       </c>
@@ -19337,7 +19392,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A448">
         <v>447</v>
       </c>
@@ -19357,7 +19412,7 @@
         <v>2925</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>448</v>
       </c>
@@ -19377,7 +19432,7 @@
         <v>3140</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A450">
         <v>449</v>
       </c>
@@ -19397,7 +19452,7 @@
         <v>3141</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>450</v>
       </c>
@@ -19417,7 +19472,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A452">
         <v>451</v>
       </c>
@@ -19437,7 +19492,7 @@
         <v>3143</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>452</v>
       </c>
@@ -19457,7 +19512,7 @@
         <v>3144</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A454">
         <v>453</v>
       </c>
@@ -19477,7 +19532,7 @@
         <v>3145</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>454</v>
       </c>
@@ -19497,7 +19552,7 @@
         <v>3146</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A456">
         <v>455</v>
       </c>
@@ -19517,7 +19572,7 @@
         <v>3147</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>456</v>
       </c>
@@ -19537,7 +19592,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A458">
         <v>457</v>
       </c>
@@ -19557,7 +19612,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>458</v>
       </c>
@@ -19577,7 +19632,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A460">
         <v>459</v>
       </c>
@@ -19597,7 +19652,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>460</v>
       </c>
@@ -19617,7 +19672,7 @@
         <v>3149</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A462">
         <v>461</v>
       </c>
@@ -19637,7 +19692,7 @@
         <v>3047</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>462</v>
       </c>
@@ -19657,7 +19712,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A464">
         <v>463</v>
       </c>
@@ -19677,7 +19732,7 @@
         <v>3151</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>464</v>
       </c>
@@ -19697,7 +19752,7 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A466">
         <v>465</v>
       </c>
@@ -19717,7 +19772,7 @@
         <v>3153</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>466</v>
       </c>
@@ -19737,7 +19792,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A468">
         <v>467</v>
       </c>
@@ -19757,7 +19812,7 @@
         <v>3154</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>468</v>
       </c>
@@ -19777,7 +19832,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A470">
         <v>469</v>
       </c>
@@ -19797,7 +19852,7 @@
         <v>3156</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A471">
         <v>470</v>
       </c>
@@ -19817,7 +19872,7 @@
         <v>3157</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A472">
         <v>471</v>
       </c>
@@ -19837,7 +19892,7 @@
         <v>3158</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A473">
         <v>472</v>
       </c>
@@ -19857,7 +19912,7 @@
         <v>3159</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A474">
         <v>473</v>
       </c>
@@ -19877,7 +19932,7 @@
         <v>3160</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A475">
         <v>474</v>
       </c>
@@ -19897,7 +19952,7 @@
         <v>3161</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A476">
         <v>475</v>
       </c>
@@ -19917,7 +19972,7 @@
         <v>3162</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A477">
         <v>476</v>
       </c>
@@ -19937,7 +19992,7 @@
         <v>3163</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A478">
         <v>477</v>
       </c>
@@ -19957,7 +20012,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A479">
         <v>478</v>
       </c>
@@ -19977,7 +20032,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A480">
         <v>479</v>
       </c>
@@ -19997,7 +20052,7 @@
         <v>3165</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>480</v>
       </c>
@@ -20017,7 +20072,7 @@
         <v>3166</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>481</v>
       </c>
@@ -20037,7 +20092,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>482</v>
       </c>
@@ -20057,7 +20112,7 @@
         <v>3167</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>483</v>
       </c>
@@ -20077,7 +20132,7 @@
         <v>3168</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>484</v>
       </c>
@@ -20097,7 +20152,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>485</v>
       </c>
@@ -20117,7 +20172,7 @@
         <v>3170</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>486</v>
       </c>
@@ -20137,7 +20192,7 @@
         <v>3171</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>487</v>
       </c>
@@ -20157,7 +20212,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>488</v>
       </c>
@@ -20177,7 +20232,7 @@
         <v>3173</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>489</v>
       </c>
@@ -20197,7 +20252,7 @@
         <v>3174</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>490</v>
       </c>
@@ -20217,7 +20272,7 @@
         <v>3175</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>491</v>
       </c>
@@ -20237,7 +20292,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>492</v>
       </c>
@@ -20257,7 +20312,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>493</v>
       </c>
@@ -20277,7 +20332,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>494</v>
       </c>
@@ -20297,7 +20352,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>495</v>
       </c>
@@ -20317,7 +20372,7 @@
         <v>3179</v>
       </c>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>496</v>
       </c>
@@ -20337,7 +20392,7 @@
         <v>3180</v>
       </c>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>497</v>
       </c>
@@ -20357,7 +20412,7 @@
         <v>3181</v>
       </c>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>498</v>
       </c>
@@ -20377,7 +20432,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>499</v>
       </c>
@@ -20397,7 +20452,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>500</v>
       </c>
@@ -20417,7 +20472,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>501</v>
       </c>
@@ -20437,7 +20492,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>502</v>
       </c>
@@ -20457,7 +20512,7 @@
         <v>3185</v>
       </c>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>503</v>
       </c>
@@ -20477,7 +20532,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>504</v>
       </c>
@@ -20497,7 +20552,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>505</v>
       </c>
@@ -20517,7 +20572,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>506</v>
       </c>
@@ -20537,7 +20592,7 @@
         <v>3186</v>
       </c>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>507</v>
       </c>
@@ -20557,7 +20612,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>508</v>
       </c>
@@ -20577,7 +20632,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>509</v>
       </c>
@@ -20597,7 +20652,7 @@
         <v>2934</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>510</v>
       </c>
@@ -20617,7 +20672,7 @@
         <v>3189</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>511</v>
       </c>
@@ -20637,7 +20692,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>512</v>
       </c>
@@ -20657,7 +20712,7 @@
         <v>3191</v>
       </c>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>513</v>
       </c>
@@ -20677,7 +20732,7 @@
         <v>3192</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>514</v>
       </c>
@@ -20697,7 +20752,7 @@
         <v>2929</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>515</v>
       </c>
@@ -20717,7 +20772,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>516</v>
       </c>
@@ -20737,7 +20792,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>517</v>
       </c>
@@ -20757,7 +20812,7 @@
         <v>3193</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>518</v>
       </c>
@@ -20777,7 +20832,7 @@
         <v>3194</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>519</v>
       </c>
@@ -20797,7 +20852,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>520</v>
       </c>
@@ -20817,7 +20872,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>521</v>
       </c>
@@ -20837,7 +20892,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>522</v>
       </c>
@@ -20857,7 +20912,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>523</v>
       </c>
@@ -20877,7 +20932,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>524</v>
       </c>
@@ -20897,7 +20952,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>525</v>
       </c>
@@ -20917,7 +20972,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>526</v>
       </c>
@@ -20937,7 +20992,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>527</v>
       </c>
@@ -20957,7 +21012,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>528</v>
       </c>
@@ -20977,7 +21032,7 @@
         <v>3198</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>529</v>
       </c>
@@ -20997,7 +21052,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>530</v>
       </c>
@@ -21017,7 +21072,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>531</v>
       </c>
@@ -21037,7 +21092,7 @@
         <v>2807</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>532</v>
       </c>
@@ -21057,7 +21112,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>533</v>
       </c>
@@ -21077,7 +21132,7 @@
         <v>3201</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>534</v>
       </c>
@@ -21097,7 +21152,7 @@
         <v>3029</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>535</v>
       </c>
@@ -21117,7 +21172,7 @@
         <v>3202</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>536</v>
       </c>
@@ -21137,7 +21192,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>537</v>
       </c>
@@ -21157,7 +21212,7 @@
         <v>3203</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>538</v>
       </c>
@@ -21177,7 +21232,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>539</v>
       </c>
@@ -21197,7 +21252,7 @@
         <v>3204</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>540</v>
       </c>
@@ -21217,7 +21272,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>541</v>
       </c>
@@ -21237,7 +21292,7 @@
         <v>3205</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>542</v>
       </c>
@@ -21257,7 +21312,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>543</v>
       </c>
@@ -21277,7 +21332,7 @@
         <v>3207</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>544</v>
       </c>
@@ -21297,7 +21352,7 @@
         <v>2906</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>545</v>
       </c>
@@ -21317,7 +21372,7 @@
         <v>3208</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>546</v>
       </c>
@@ -21337,7 +21392,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>547</v>
       </c>
@@ -21357,7 +21412,7 @@
         <v>3209</v>
       </c>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>548</v>
       </c>
@@ -21377,7 +21432,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>549</v>
       </c>
@@ -21397,7 +21452,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>550</v>
       </c>
@@ -21417,7 +21472,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>551</v>
       </c>
@@ -21437,7 +21492,7 @@
         <v>3211</v>
       </c>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>552</v>
       </c>
@@ -21457,7 +21512,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>553</v>
       </c>
@@ -21477,7 +21532,7 @@
         <v>3212</v>
       </c>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>554</v>
       </c>
@@ -21497,7 +21552,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>555</v>
       </c>
@@ -21517,7 +21572,7 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>556</v>
       </c>
@@ -21537,7 +21592,7 @@
         <v>3214</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>557</v>
       </c>
@@ -21557,7 +21612,7 @@
         <v>3215</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>558</v>
       </c>
@@ -21577,7 +21632,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>559</v>
       </c>
@@ -21597,7 +21652,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>560</v>
       </c>
@@ -21617,7 +21672,7 @@
         <v>2978</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>561</v>
       </c>
@@ -21637,7 +21692,7 @@
         <v>3217</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>562</v>
       </c>
@@ -21657,7 +21712,7 @@
         <v>3218</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>563</v>
       </c>
@@ -21677,7 +21732,7 @@
         <v>3219</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>564</v>
       </c>
@@ -21697,7 +21752,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>565</v>
       </c>
@@ -21717,7 +21772,7 @@
         <v>3221</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>566</v>
       </c>
@@ -21737,7 +21792,7 @@
         <v>3222</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>567</v>
       </c>
@@ -21757,7 +21812,7 @@
         <v>3223</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>568</v>
       </c>
@@ -21777,7 +21832,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>569</v>
       </c>
@@ -21797,7 +21852,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>570</v>
       </c>
@@ -21817,7 +21872,7 @@
         <v>3224</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>571</v>
       </c>
@@ -21837,7 +21892,7 @@
         <v>3225</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>572</v>
       </c>
@@ -21857,7 +21912,7 @@
         <v>3226</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>573</v>
       </c>
@@ -21877,7 +21932,7 @@
         <v>3227</v>
       </c>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>574</v>
       </c>
@@ -21897,7 +21952,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>575</v>
       </c>
@@ -21917,7 +21972,7 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>576</v>
       </c>
@@ -21937,7 +21992,7 @@
         <v>3229</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>577</v>
       </c>
@@ -21957,7 +22012,7 @@
         <v>3134</v>
       </c>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>578</v>
       </c>
@@ -21977,7 +22032,7 @@
         <v>3219</v>
       </c>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>579</v>
       </c>
@@ -21997,7 +22052,7 @@
         <v>3230</v>
       </c>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A581">
         <v>580</v>
       </c>
@@ -22017,7 +22072,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A582">
         <v>581</v>
       </c>
@@ -22037,7 +22092,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A583">
         <v>582</v>
       </c>
@@ -22057,7 +22112,7 @@
         <v>3231</v>
       </c>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A584">
         <v>583</v>
       </c>
@@ -22077,7 +22132,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A585">
         <v>584</v>
       </c>
@@ -22097,7 +22152,7 @@
         <v>3233</v>
       </c>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A586">
         <v>585</v>
       </c>
@@ -22117,7 +22172,7 @@
         <v>3234</v>
       </c>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A587">
         <v>586</v>
       </c>
@@ -22137,7 +22192,7 @@
         <v>3235</v>
       </c>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A588">
         <v>587</v>
       </c>
@@ -22157,7 +22212,7 @@
         <v>3236</v>
       </c>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A589">
         <v>588</v>
       </c>
@@ -22177,7 +22232,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A590">
         <v>589</v>
       </c>
@@ -22197,7 +22252,7 @@
         <v>3238</v>
       </c>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A591">
         <v>590</v>
       </c>
@@ -22217,7 +22272,7 @@
         <v>3239</v>
       </c>
     </row>
-    <row r="592" spans="1:6">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A592">
         <v>591</v>
       </c>
@@ -22237,7 +22292,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>592</v>
       </c>
@@ -22257,7 +22312,7 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>593</v>
       </c>
@@ -22277,7 +22332,7 @@
         <v>3241</v>
       </c>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>594</v>
       </c>
@@ -22297,7 +22352,7 @@
         <v>3242</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>595</v>
       </c>
@@ -22317,7 +22372,7 @@
         <v>3243</v>
       </c>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A597">
         <v>596</v>
       </c>
@@ -22337,7 +22392,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="598" spans="1:6">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A598">
         <v>597</v>
       </c>
@@ -22357,7 +22412,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A599">
         <v>598</v>
       </c>
@@ -22377,7 +22432,7 @@
         <v>3245</v>
       </c>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A600">
         <v>599</v>
       </c>
@@ -22397,7 +22452,7 @@
         <v>3246</v>
       </c>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A601">
         <v>600</v>
       </c>
@@ -22417,7 +22472,7 @@
         <v>3247</v>
       </c>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A602">
         <v>601</v>
       </c>
@@ -22437,7 +22492,7 @@
         <v>3248</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A603">
         <v>602</v>
       </c>
@@ -22457,7 +22512,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A604">
         <v>603</v>
       </c>
@@ -22477,7 +22532,7 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A605">
         <v>604</v>
       </c>
@@ -22497,7 +22552,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A606">
         <v>605</v>
       </c>
@@ -22517,7 +22572,7 @@
         <v>3251</v>
       </c>
     </row>
-    <row r="607" spans="1:6">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A607">
         <v>606</v>
       </c>
@@ -22537,7 +22592,7 @@
         <v>3252</v>
       </c>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A608">
         <v>607</v>
       </c>
@@ -22557,7 +22612,7 @@
         <v>3253</v>
       </c>
     </row>
-    <row r="609" spans="1:6">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A609">
         <v>608</v>
       </c>
@@ -22577,7 +22632,7 @@
         <v>3254</v>
       </c>
     </row>
-    <row r="610" spans="1:6">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A610">
         <v>609</v>
       </c>
@@ -22597,7 +22652,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="611" spans="1:6">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A611">
         <v>610</v>
       </c>
@@ -22617,7 +22672,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="612" spans="1:6">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A612">
         <v>611</v>
       </c>
@@ -22637,7 +22692,7 @@
         <v>3245</v>
       </c>
     </row>
-    <row r="613" spans="1:6">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A613">
         <v>612</v>
       </c>
@@ -22657,7 +22712,7 @@
         <v>3256</v>
       </c>
     </row>
-    <row r="614" spans="1:6">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A614">
         <v>613</v>
       </c>
@@ -22677,7 +22732,7 @@
         <v>2997</v>
       </c>
     </row>
-    <row r="615" spans="1:6">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A615">
         <v>614</v>
       </c>
@@ -22697,7 +22752,7 @@
         <v>3257</v>
       </c>
     </row>
-    <row r="616" spans="1:6">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A616">
         <v>615</v>
       </c>
@@ -22717,7 +22772,7 @@
         <v>3258</v>
       </c>
     </row>
-    <row r="617" spans="1:6">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A617">
         <v>616</v>
       </c>
@@ -22737,7 +22792,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="618" spans="1:6">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A618">
         <v>617</v>
       </c>
@@ -22757,7 +22812,7 @@
         <v>3260</v>
       </c>
     </row>
-    <row r="619" spans="1:6">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A619">
         <v>618</v>
       </c>
@@ -22777,7 +22832,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="620" spans="1:6">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A620">
         <v>619</v>
       </c>
@@ -22797,7 +22852,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="621" spans="1:6">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A621">
         <v>620</v>
       </c>
@@ -22817,7 +22872,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="622" spans="1:6">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A622">
         <v>621</v>
       </c>
@@ -22837,7 +22892,7 @@
         <v>3089</v>
       </c>
     </row>
-    <row r="623" spans="1:6">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A623">
         <v>622</v>
       </c>
@@ -22857,7 +22912,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="624" spans="1:6">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A624">
         <v>623</v>
       </c>
@@ -22877,7 +22932,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="625" spans="1:6">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A625">
         <v>624</v>
       </c>
@@ -22897,7 +22952,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="626" spans="1:6">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A626">
         <v>625</v>
       </c>
@@ -22917,7 +22972,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="627" spans="1:6">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A627">
         <v>626</v>
       </c>
@@ -22937,7 +22992,7 @@
         <v>3263</v>
       </c>
     </row>
-    <row r="628" spans="1:6">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A628">
         <v>627</v>
       </c>
@@ -22957,7 +23012,7 @@
         <v>3264</v>
       </c>
     </row>
-    <row r="629" spans="1:6">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A629">
         <v>628</v>
       </c>
@@ -22977,7 +23032,7 @@
         <v>3244</v>
       </c>
     </row>
-    <row r="630" spans="1:6">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A630">
         <v>629</v>
       </c>
@@ -22997,7 +23052,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="631" spans="1:6">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A631">
         <v>630</v>
       </c>
@@ -23017,7 +23072,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="632" spans="1:6">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A632">
         <v>631</v>
       </c>
@@ -23037,7 +23092,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="633" spans="1:6">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A633">
         <v>632</v>
       </c>
@@ -23057,7 +23112,7 @@
         <v>3267</v>
       </c>
     </row>
-    <row r="634" spans="1:6">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A634">
         <v>633</v>
       </c>
@@ -23077,7 +23132,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="635" spans="1:6">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A635">
         <v>634</v>
       </c>
@@ -23097,7 +23152,7 @@
         <v>3269</v>
       </c>
     </row>
-    <row r="636" spans="1:6">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A636">
         <v>635</v>
       </c>
@@ -23117,7 +23172,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="637" spans="1:6">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A637">
         <v>636</v>
       </c>
@@ -23137,7 +23192,7 @@
         <v>3270</v>
       </c>
     </row>
-    <row r="638" spans="1:6">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A638">
         <v>637</v>
       </c>
@@ -23157,7 +23212,7 @@
         <v>3271</v>
       </c>
     </row>
-    <row r="639" spans="1:6">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A639">
         <v>638</v>
       </c>
@@ -23177,7 +23232,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="640" spans="1:6">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A640">
         <v>639</v>
       </c>
@@ -23197,7 +23252,7 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="641" spans="1:6">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A641">
         <v>640</v>
       </c>
@@ -23217,7 +23272,7 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="642" spans="1:6">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A642">
         <v>641</v>
       </c>
@@ -23237,7 +23292,7 @@
         <v>2865</v>
       </c>
     </row>
-    <row r="643" spans="1:6">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A643">
         <v>642</v>
       </c>
@@ -23257,7 +23312,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="644" spans="1:6">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A644">
         <v>643</v>
       </c>
@@ -23277,7 +23332,7 @@
         <v>2917</v>
       </c>
     </row>
-    <row r="645" spans="1:6">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A645">
         <v>644</v>
       </c>
@@ -23297,7 +23352,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="646" spans="1:6">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A646">
         <v>645</v>
       </c>
@@ -23317,7 +23372,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="647" spans="1:6">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A647">
         <v>646</v>
       </c>
@@ -23337,7 +23392,7 @@
         <v>3276</v>
       </c>
     </row>
-    <row r="648" spans="1:6">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A648">
         <v>647</v>
       </c>
@@ -23357,7 +23412,7 @@
         <v>3277</v>
       </c>
     </row>
-    <row r="649" spans="1:6">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A649">
         <v>648</v>
       </c>
@@ -23377,7 +23432,7 @@
         <v>3278</v>
       </c>
     </row>
-    <row r="650" spans="1:6">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A650">
         <v>649</v>
       </c>
@@ -23397,7 +23452,7 @@
         <v>3279</v>
       </c>
     </row>
-    <row r="651" spans="1:6">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A651">
         <v>650</v>
       </c>
@@ -23417,7 +23472,7 @@
         <v>3280</v>
       </c>
     </row>
-    <row r="652" spans="1:6">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A652">
         <v>651</v>
       </c>
@@ -23437,7 +23492,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="653" spans="1:6">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A653">
         <v>652</v>
       </c>
@@ -23457,7 +23512,7 @@
         <v>3190</v>
       </c>
     </row>
-    <row r="654" spans="1:6">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A654">
         <v>653</v>
       </c>
@@ -23477,7 +23532,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="655" spans="1:6">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A655">
         <v>654</v>
       </c>
@@ -23497,7 +23552,7 @@
         <v>3281</v>
       </c>
     </row>
-    <row r="656" spans="1:6">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A656">
         <v>655</v>
       </c>
@@ -23517,7 +23572,7 @@
         <v>3282</v>
       </c>
     </row>
-    <row r="657" spans="1:6">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A657">
         <v>656</v>
       </c>
@@ -23537,7 +23592,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="658" spans="1:6">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A658">
         <v>657</v>
       </c>
@@ -23557,7 +23612,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="659" spans="1:6">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A659">
         <v>658</v>
       </c>
@@ -23577,7 +23632,7 @@
         <v>3285</v>
       </c>
     </row>
-    <row r="660" spans="1:6">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A660">
         <v>659</v>
       </c>
@@ -23597,7 +23652,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="661" spans="1:6">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A661">
         <v>660</v>
       </c>
@@ -23617,7 +23672,7 @@
         <v>3286</v>
       </c>
     </row>
-    <row r="662" spans="1:6">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A662">
         <v>661</v>
       </c>
@@ -23637,7 +23692,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="663" spans="1:6">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A663">
         <v>662</v>
       </c>
@@ -23657,7 +23712,7 @@
         <v>3288</v>
       </c>
     </row>
-    <row r="664" spans="1:6">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A664">
         <v>663</v>
       </c>
@@ -23677,7 +23732,7 @@
         <v>3289</v>
       </c>
     </row>
-    <row r="665" spans="1:6">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A665">
         <v>664</v>
       </c>
@@ -23697,7 +23752,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="666" spans="1:6">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A666">
         <v>665</v>
       </c>
@@ -23717,7 +23772,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="667" spans="1:6">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A667">
         <v>666</v>
       </c>
@@ -23737,7 +23792,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="668" spans="1:6">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A668">
         <v>667</v>
       </c>
@@ -23757,7 +23812,7 @@
         <v>3291</v>
       </c>
     </row>
-    <row r="669" spans="1:6">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A669">
         <v>668</v>
       </c>
@@ -23777,7 +23832,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="670" spans="1:6">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A670">
         <v>669</v>
       </c>
@@ -23797,7 +23852,7 @@
         <v>3293</v>
       </c>
     </row>
-    <row r="671" spans="1:6">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A671">
         <v>670</v>
       </c>
@@ -23817,7 +23872,7 @@
         <v>3028</v>
       </c>
     </row>
-    <row r="672" spans="1:6">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A672">
         <v>671</v>
       </c>
@@ -23837,7 +23892,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="673" spans="1:6">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A673">
         <v>672</v>
       </c>
@@ -23857,7 +23912,7 @@
         <v>2840</v>
       </c>
     </row>
-    <row r="674" spans="1:6">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A674">
         <v>673</v>
       </c>
@@ -23877,7 +23932,7 @@
         <v>3295</v>
       </c>
     </row>
-    <row r="675" spans="1:6">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A675">
         <v>674</v>
       </c>
@@ -23897,7 +23952,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="676" spans="1:6">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A676">
         <v>675</v>
       </c>
@@ -23917,7 +23972,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="677" spans="1:6">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A677">
         <v>676</v>
       </c>
@@ -23937,7 +23992,7 @@
         <v>2849</v>
       </c>
     </row>
-    <row r="678" spans="1:6">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A678">
         <v>677</v>
       </c>
@@ -23957,7 +24012,7 @@
         <v>2788</v>
       </c>
     </row>
-    <row r="679" spans="1:6">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A679">
         <v>678</v>
       </c>
@@ -23977,7 +24032,7 @@
         <v>3297</v>
       </c>
     </row>
-    <row r="680" spans="1:6">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A680">
         <v>679</v>
       </c>
@@ -23997,7 +24052,7 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="681" spans="1:6">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A681">
         <v>680</v>
       </c>
@@ -24017,7 +24072,7 @@
         <v>3299</v>
       </c>
     </row>
-    <row r="682" spans="1:6">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A682">
         <v>681</v>
       </c>
@@ -24037,7 +24092,7 @@
         <v>2830</v>
       </c>
     </row>
-    <row r="683" spans="1:6">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A683">
         <v>682</v>
       </c>
@@ -24057,7 +24112,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="684" spans="1:6">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A684">
         <v>683</v>
       </c>
@@ -24077,7 +24132,7 @@
         <v>3301</v>
       </c>
     </row>
-    <row r="685" spans="1:6">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A685">
         <v>684</v>
       </c>
@@ -24097,7 +24152,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="686" spans="1:6">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A686">
         <v>685</v>
       </c>
@@ -24117,7 +24172,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="687" spans="1:6">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A687">
         <v>686</v>
       </c>
@@ -24137,7 +24192,7 @@
         <v>3304</v>
       </c>
     </row>
-    <row r="688" spans="1:6">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A688">
         <v>687</v>
       </c>
@@ -24157,7 +24212,7 @@
         <v>3305</v>
       </c>
     </row>
-    <row r="689" spans="1:6">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A689">
         <v>688</v>
       </c>
@@ -24177,7 +24232,7 @@
         <v>3306</v>
       </c>
     </row>
-    <row r="690" spans="1:6">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A690">
         <v>689</v>
       </c>
@@ -24197,7 +24252,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="691" spans="1:6">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A691">
         <v>690</v>
       </c>
@@ -24217,7 +24272,7 @@
         <v>2896</v>
       </c>
     </row>
-    <row r="692" spans="1:6">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A692">
         <v>691</v>
       </c>
@@ -24237,7 +24292,7 @@
         <v>3307</v>
       </c>
     </row>
-    <row r="693" spans="1:6">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A693">
         <v>692</v>
       </c>
@@ -24257,7 +24312,7 @@
         <v>3198</v>
       </c>
     </row>
-    <row r="694" spans="1:6">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A694">
         <v>693</v>
       </c>
@@ -24277,7 +24332,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="695" spans="1:6">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A695">
         <v>694</v>
       </c>
@@ -24297,7 +24352,7 @@
         <v>3309</v>
       </c>
     </row>
-    <row r="696" spans="1:6">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A696">
         <v>695</v>
       </c>
@@ -24317,7 +24372,7 @@
         <v>3310</v>
       </c>
     </row>
-    <row r="697" spans="1:6">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A697">
         <v>696</v>
       </c>
@@ -24337,7 +24392,7 @@
         <v>3311</v>
       </c>
     </row>
-    <row r="698" spans="1:6">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A698">
         <v>697</v>
       </c>
@@ -24357,7 +24412,7 @@
         <v>3312</v>
       </c>
     </row>
-    <row r="699" spans="1:6">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A699">
         <v>698</v>
       </c>
@@ -24377,7 +24432,7 @@
         <v>3313</v>
       </c>
     </row>
-    <row r="700" spans="1:6">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A700">
         <v>699</v>
       </c>
@@ -24397,7 +24452,7 @@
         <v>3314</v>
       </c>
     </row>
-    <row r="701" spans="1:6">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A701">
         <v>700</v>
       </c>
@@ -24417,7 +24472,7 @@
         <v>3315</v>
       </c>
     </row>
-    <row r="702" spans="1:6">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A702">
         <v>701</v>
       </c>
@@ -24437,7 +24492,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="703" spans="1:6">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A703">
         <v>702</v>
       </c>
@@ -24457,7 +24512,7 @@
         <v>3316</v>
       </c>
     </row>
-    <row r="704" spans="1:6">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A704">
         <v>703</v>
       </c>
@@ -24477,7 +24532,7 @@
         <v>3317</v>
       </c>
     </row>
-    <row r="705" spans="1:6">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A705">
         <v>704</v>
       </c>
@@ -24497,7 +24552,7 @@
         <v>3318</v>
       </c>
     </row>
-    <row r="706" spans="1:6">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A706">
         <v>705</v>
       </c>
@@ -24517,7 +24572,7 @@
         <v>3319</v>
       </c>
     </row>
-    <row r="707" spans="1:6">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A707">
         <v>706</v>
       </c>
@@ -24537,7 +24592,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="708" spans="1:6">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A708">
         <v>707</v>
       </c>
@@ -24557,7 +24612,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="709" spans="1:6">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A709">
         <v>708</v>
       </c>
@@ -24577,7 +24632,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="710" spans="1:6">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A710">
         <v>709</v>
       </c>
@@ -24597,7 +24652,7 @@
         <v>2815</v>
       </c>
     </row>
-    <row r="711" spans="1:6">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A711">
         <v>710</v>
       </c>
@@ -24617,7 +24672,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="712" spans="1:6">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A712">
         <v>711</v>
       </c>
@@ -24637,7 +24692,7 @@
         <v>3321</v>
       </c>
     </row>
-    <row r="713" spans="1:6">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A713">
         <v>712</v>
       </c>
@@ -24657,7 +24712,7 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="714" spans="1:6">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A714">
         <v>713</v>
       </c>
@@ -24677,7 +24732,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="715" spans="1:6">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A715">
         <v>714</v>
       </c>
@@ -24697,7 +24752,7 @@
         <v>3322</v>
       </c>
     </row>
-    <row r="716" spans="1:6">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A716">
         <v>715</v>
       </c>
@@ -24717,7 +24772,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="717" spans="1:6">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A717">
         <v>716</v>
       </c>
@@ -24737,7 +24792,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="718" spans="1:6">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A718">
         <v>717</v>
       </c>
@@ -24757,7 +24812,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="719" spans="1:6">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A719">
         <v>718</v>
       </c>
@@ -24777,7 +24832,7 @@
         <v>3325</v>
       </c>
     </row>
-    <row r="720" spans="1:6">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A720">
         <v>719</v>
       </c>
@@ -24797,7 +24852,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="721" spans="1:6">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A721">
         <v>720</v>
       </c>
@@ -24817,7 +24872,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="722" spans="1:6">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A722">
         <v>721</v>
       </c>
@@ -24837,7 +24892,7 @@
         <v>3326</v>
       </c>
     </row>
-    <row r="723" spans="1:6">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A723">
         <v>722</v>
       </c>
@@ -24857,7 +24912,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="724" spans="1:6">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A724">
         <v>723</v>
       </c>
@@ -24877,7 +24932,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="725" spans="1:6">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A725">
         <v>724</v>
       </c>
@@ -24897,7 +24952,7 @@
         <v>3328</v>
       </c>
     </row>
-    <row r="726" spans="1:6">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A726">
         <v>725</v>
       </c>
@@ -24917,7 +24972,7 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="727" spans="1:6">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A727">
         <v>726</v>
       </c>
@@ -24937,7 +24992,7 @@
         <v>3330</v>
       </c>
     </row>
-    <row r="728" spans="1:6">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A728">
         <v>727</v>
       </c>
@@ -24957,7 +25012,7 @@
         <v>3331</v>
       </c>
     </row>
-    <row r="729" spans="1:6">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A729">
         <v>728</v>
       </c>
@@ -24977,7 +25032,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="730" spans="1:6">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A730">
         <v>729</v>
       </c>
@@ -24997,7 +25052,7 @@
         <v>2798</v>
       </c>
     </row>
-    <row r="731" spans="1:6">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A731">
         <v>730</v>
       </c>
@@ -25017,7 +25072,7 @@
         <v>3332</v>
       </c>
     </row>
-    <row r="732" spans="1:6">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A732">
         <v>731</v>
       </c>
@@ -25037,7 +25092,7 @@
         <v>3333</v>
       </c>
     </row>
-    <row r="733" spans="1:6">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A733">
         <v>732</v>
       </c>
@@ -25057,7 +25112,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="734" spans="1:6">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A734">
         <v>733</v>
       </c>
@@ -25077,7 +25132,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="735" spans="1:6">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A735">
         <v>734</v>
       </c>
@@ -25097,7 +25152,7 @@
         <v>2909</v>
       </c>
     </row>
-    <row r="736" spans="1:6">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A736">
         <v>735</v>
       </c>
@@ -25117,7 +25172,7 @@
         <v>3336</v>
       </c>
     </row>
-    <row r="737" spans="1:6">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A737">
         <v>736</v>
       </c>
@@ -25137,7 +25192,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="738" spans="1:6">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A738">
         <v>737</v>
       </c>
@@ -25157,7 +25212,7 @@
         <v>2918</v>
       </c>
     </row>
-    <row r="739" spans="1:6">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A739">
         <v>738</v>
       </c>
@@ -25177,7 +25232,7 @@
         <v>3337</v>
       </c>
     </row>
-    <row r="740" spans="1:6">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A740">
         <v>739</v>
       </c>
@@ -25197,7 +25252,7 @@
         <v>3338</v>
       </c>
     </row>
-    <row r="741" spans="1:6">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A741">
         <v>740</v>
       </c>
@@ -25217,7 +25272,7 @@
         <v>3339</v>
       </c>
     </row>
-    <row r="742" spans="1:6">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A742">
         <v>741</v>
       </c>
